--- a/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 2020.xlsx
+++ b/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
   </si>
 </sst>
 </file>
@@ -863,7 +872,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -896,6 +905,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>17330051920076</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 2020.xlsx
+++ b/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>Mat</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>MARITZA</t>
   </si>
 </sst>
 </file>
@@ -544,19 +535,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -570,19 +561,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>61.9</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H5">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -638,16 +629,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>80.95</v>
+      </c>
+      <c r="H2">
+        <v>9.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -661,16 +655,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>80.95</v>
+      </c>
+      <c r="H3">
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -684,16 +681,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>74.36</v>
+      </c>
+      <c r="H4">
+        <v>7.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -707,16 +707,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H5">
+        <v>9.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +787,7 @@
         <v>80.95</v>
       </c>
       <c r="H2">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -810,7 +813,7 @@
         <v>80.95</v>
       </c>
       <c r="H3">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -824,16 +827,16 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -850,19 +853,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>61.9</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H5">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +875,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -905,29 +908,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>17330051920076</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 2020.xlsx
+++ b/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>OSWALDO IVAN</t>
   </si>
 </sst>
 </file>
@@ -875,7 +884,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,6 +917,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 2020.xlsx
+++ b/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>Mat</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>OSWALDO IVAN</t>
   </si>
 </sst>
 </file>
@@ -570,19 +561,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>71.43000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="H5">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
@@ -716,19 +707,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>71.43000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="H5">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
@@ -862,16 +853,16 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>71.43000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="H5">
         <v>9.300000000000001</v>
@@ -884,7 +875,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -917,29 +908,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
